--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,62</t>
+          <t>0,68; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,37</t>
+          <t>1,24; 7,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,62</t>
+          <t>0,86; 7,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,54</t>
+          <t>1,71; 10,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 12,01</t>
+          <t>5,43; 11,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,85</t>
+          <t>0,43; 3,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,51</t>
+          <t>1,57; 6,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,69</t>
+          <t>4,16; 8,85</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,19</t>
+          <t>0,38; 2,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,74</t>
+          <t>0,62; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,67</t>
+          <t>3,28; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,15</t>
+          <t>2,58; 6,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,03</t>
+          <t>3,25; 6,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,26</t>
+          <t>4,53; 7,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,57</t>
+          <t>1,71; 3,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,32</t>
+          <t>2,15; 4,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,44</t>
+          <t>4,33; 6,38</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,82</t>
+          <t>1,1; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,42</t>
+          <t>0,3; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,37</t>
+          <t>1,6; 3,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,22</t>
+          <t>3,55; 6,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,08</t>
+          <t>1,89; 4,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,13</t>
+          <t>5,0; 7,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,11</t>
+          <t>2,53; 4,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,54</t>
+          <t>1,27; 2,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,98</t>
+          <t>3,49; 4,98</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,02</t>
+          <t>0,82; 3,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,87</t>
+          <t>0,33; 1,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,76</t>
+          <t>1,88; 4,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,1</t>
+          <t>2,34; 5,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,8</t>
+          <t>1,91; 4,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,29</t>
+          <t>3,58; 7,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,47</t>
+          <t>1,79; 3,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,87</t>
+          <t>1,3; 2,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,49</t>
+          <t>3,36; 5,59</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,81</t>
+          <t>0,44; 1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,95</t>
+          <t>0,48; 1,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,8</t>
+          <t>1,82; 3,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 6,32</t>
+          <t>3,69; 6,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,45</t>
+          <t>2,84; 5,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,42</t>
+          <t>5,78; 9,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,97</t>
+          <t>2,37; 3,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,42</t>
+          <t>1,93; 3,51</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,35</t>
+          <t>4,17; 6,39</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,81</t>
+          <t>0,98; 1,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,45</t>
+          <t>0,7; 1,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,57</t>
+          <t>2,46; 3,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,09</t>
+          <t>3,69; 5,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,3</t>
+          <t>3,02; 4,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 7,21</t>
+          <t>5,49; 7,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,34</t>
+          <t>2,48; 3,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,71</t>
+          <t>2,0; 2,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 5,26</t>
+          <t>4,24; 5,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,29</t>
+          <t>0,68; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,57</t>
+          <t>0,92; 7,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,61</t>
+          <t>1,76; 10,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,92</t>
+          <t>0,43; 3,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,39</t>
+          <t>1,71; 6,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,25</t>
+          <t>0,38; 2,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,66</t>
+          <t>0,71; 2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,09</t>
+          <t>2,61; 5,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,79</t>
+          <t>3,3; 7,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,61</t>
+          <t>1,76; 3,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,37</t>
+          <t>2,15; 4,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,7</t>
+          <t>1,06; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,45</t>
+          <t>0,29; 1,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,24</t>
+          <t>3,55; 6,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,13</t>
+          <t>1,9; 4,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,16</t>
+          <t>2,56; 4,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,6</t>
+          <t>1,3; 2,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,01</t>
+          <t>0,83; 2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,95</t>
+          <t>0,33; 1,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,08</t>
+          <t>2,31; 5,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,65</t>
+          <t>1,97; 4,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,55</t>
+          <t>1,84; 3,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,86</t>
+          <t>1,31; 2,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,71</t>
+          <t>0,43; 1,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,88</t>
+          <t>0,51; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,47</t>
+          <t>3,61; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,52</t>
+          <t>2,94; 5,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,95</t>
+          <t>2,27; 3,93</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,51</t>
+          <t>1,85; 3,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,79</t>
+          <t>0,99; 1,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,35</t>
+          <t>0,67; 1,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,06</t>
+          <t>3,68; 5,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,29</t>
+          <t>2,91; 4,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,31</t>
+          <t>2,5; 3,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,7</t>
+          <t>1,98; 2,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,16</t>
+          <t>0,69; 6,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,27</t>
+          <t>1,26; 7,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 7,92</t>
+          <t>0,87; 7,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,51</t>
+          <t>1,78; 10,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,91</t>
+          <t>5,45; 12,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,9</t>
+          <t>0,43; 3,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,53</t>
+          <t>1,64; 6,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,85</t>
+          <t>4,24; 8,69</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,11</t>
+          <t>0,38; 2,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,93</t>
+          <t>0,61; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,67</t>
+          <t>3,19; 6,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,99</t>
+          <t>2,52; 6,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,03</t>
+          <t>3,2; 7,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,27</t>
+          <t>4,54; 7,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,75</t>
+          <t>1,75; 3,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,16</t>
+          <t>2,19; 4,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,38</t>
+          <t>4,26; 6,44</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,74</t>
+          <t>1,06; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,44</t>
+          <t>0,29; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,4</t>
+          <t>1,62; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,27</t>
+          <t>3,47; 6,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,06</t>
+          <t>1,89; 4,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,16</t>
+          <t>4,87; 7,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,12</t>
+          <t>2,48; 4,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,54</t>
+          <t>1,22; 2,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,98</t>
+          <t>3,48; 4,98</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,91</t>
+          <t>0,95; 3,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,75</t>
+          <t>0,34; 1,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,39</t>
+          <t>1,89; 4,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,02</t>
+          <t>2,29; 5,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,56</t>
+          <t>2,01; 4,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,26</t>
+          <t>3,59; 7,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,52</t>
+          <t>1,83; 3,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,81</t>
+          <t>1,36; 2,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,59</t>
+          <t>3,3; 5,49</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,72</t>
+          <t>0,51; 1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,98</t>
+          <t>0,52; 1,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,69</t>
+          <t>1,77; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,29</t>
+          <t>3,59; 6,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,65</t>
+          <t>2,86; 5,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 9,61</t>
+          <t>5,67; 9,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,93</t>
+          <t>2,33; 3,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,38</t>
+          <t>1,87; 3,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,39</t>
+          <t>4,19; 6,35</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,79</t>
+          <t>0,98; 1,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,35</t>
+          <t>0,71; 1,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,6</t>
+          <t>2,44; 3,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,12</t>
+          <t>3,65; 5,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,35</t>
+          <t>2,99; 4,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,11</t>
+          <t>5,52; 7,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,27</t>
+          <t>2,51; 3,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,76</t>
+          <t>1,97; 2,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,24</t>
+          <t>4,28; 5,26</t>
         </is>
       </c>
     </row>
